--- a/ResultadoEleicoesDistritos/BEJA_SERPA.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_SERPA.xlsx
@@ -597,64 +597,64 @@
         <v>3683</v>
       </c>
       <c r="H2" t="n">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="I2" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="J2" t="n">
         <v>1540</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="M2" t="n">
         <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="T2" t="n">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>2400</v>
+        <v>2312</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2291</v>
+        <v>2361</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
